--- a/Sound Nicer Altium Project/Project Outputs for SonicMaximizer/BOM/SoundNicer.xlsx
+++ b/Sound Nicer Altium Project/Project Outputs for SonicMaximizer/BOM/SoundNicer.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oren\Documents\SoundNicer\Sound Nicer Altium Project\Project Outputs for SonicMaximizer\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="11595"/>
   </bookViews>
@@ -225,16 +230,16 @@
     <t>U2</t>
   </si>
   <si>
-    <t>511-TL072IDT</t>
-  </si>
-  <si>
-    <t>TL072IDT</t>
-  </si>
-  <si>
     <t>Trimming Potentiometer, 5K Ohm +/- 10%, -55 to 125 degC, 3-Pin 19.05 x 4.83 x 6.6 mm THD, Transparent Housing, RoHS</t>
   </si>
   <si>
     <t>VR1, VR2</t>
+  </si>
+  <si>
+    <t>TL072CD</t>
+  </si>
+  <si>
+    <t>595-TL072CD</t>
   </si>
 </sst>
 </file>
@@ -620,7 +625,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1038,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1049,10 +1056,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
